--- a/tests/bin/OpenRefine_exports/2_PR1_16-17.xlsx
+++ b/tests/bin/OpenRefine_exports/2_PR1_16-17.xlsx
@@ -118,7 +118,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="F2" t="n">
         <v>20103.0</v>
@@ -146,7 +146,7 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="F3" t="n">
         <v>10413.0</v>
@@ -174,7 +174,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="F4" t="n">
         <v>19559.0</v>
@@ -202,7 +202,7 @@
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="F5" t="n">
         <v>27121.0</v>
@@ -230,7 +230,7 @@
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="F6" t="n">
         <v>43473.0</v>
@@ -258,7 +258,7 @@
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="F7" t="n">
         <v>11490.0</v>
@@ -286,7 +286,7 @@
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="F8" t="n">
         <v>12415.0</v>
@@ -314,7 +314,7 @@
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="F9" t="n">
         <v>22544.0</v>
@@ -342,7 +342,7 @@
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="F10" t="n">
         <v>28193.0</v>
@@ -370,7 +370,7 @@
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="F11" t="n">
         <v>22959.0</v>
@@ -398,7 +398,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="F12" t="n">
         <v>10087.0</v>
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="F13" t="n">
         <v>12638.0</v>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="F14" t="n">
         <v>75.0</v>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="F15" t="n">
         <v>14003.0</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="F16" t="n">
         <v>12757.0</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="F17" t="n">
         <v>25926.0</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="F18" t="n">
         <v>19349.0</v>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="F19" t="n">
         <v>15032.0</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="E20" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="F20" t="n">
         <v>11822.0</v>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="F21" t="n">
         <v>11935.0</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="E22" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="F22" t="n">
         <v>14702.0</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="F23" t="n">
         <v>21949.0</v>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="F24" t="n">
         <v>13981.0</v>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="F25" t="n">
         <v>26799.0</v>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="E26" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="F26" t="n">
         <v>19748.0</v>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="E27" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="F27" t="n">
         <v>10446.0</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="F28" t="n">
         <v>10956.0</v>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="E29" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="F29" t="n">
         <v>23612.0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="E30" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="F30" t="n">
         <v>18843.0</v>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="E31" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="F31" t="n">
         <v>13878.0</v>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E32" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="F32" t="n">
         <v>11790.0</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E33" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="F33" t="n">
         <v>10209.0</v>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="F34" t="n">
         <v>13256.0</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="F35" t="n">
         <v>15489.0</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="E36" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="F36" t="n">
         <v>11339.0</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="E37" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="F37" t="n">
         <v>24413.0</v>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="E38" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="F38" t="n">
         <v>17402.0</v>
